--- a/Week_07/chi-squared_test_and_pearson_correlation.xlsx
+++ b/Week_07/chi-squared_test_and_pearson_correlation.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Lektionen\DA_HS2022\KK\Week_07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/School/Sem5/DA/data_analytics/Week_07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B23F2B-6575-4D1F-A9A5-4F80F7C20712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADCC1BF-B442-B541-A14B-AE2B9D67A083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5EEC2E2C-3288-4F5E-82D1-2929FCEC1714}"/>
+    <workbookView xWindow="25600" yWindow="1220" windowWidth="25600" windowHeight="30820" activeTab="1" xr2:uid="{5EEC2E2C-3288-4F5E-82D1-2929FCEC1714}"/>
   </bookViews>
   <sheets>
     <sheet name="chi_squared_test" sheetId="2" r:id="rId1"/>
-    <sheet name="chi_squared_solution" sheetId="3" r:id="rId2"/>
-    <sheet name="pearson_correlation" sheetId="1" r:id="rId3"/>
-    <sheet name="pearson_corr_solution" sheetId="4" r:id="rId4"/>
+    <sheet name="chi_squared_test (Task2)" sheetId="5" r:id="rId2"/>
+    <sheet name="chi_squared_solution" sheetId="3" r:id="rId3"/>
+    <sheet name="pearson_correlation" sheetId="1" r:id="rId4"/>
+    <sheet name="pearson_corr_solution" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>Person</t>
   </si>
@@ -229,6 +230,24 @@
   <si>
     <t>=(number of rows in the contingency table - 1) * (number of columns in the contingency table - 1)</t>
   </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>Greetings</t>
+  </si>
+  <si>
+    <t>Aggressioin</t>
+  </si>
+  <si>
+    <t>No Reponse</t>
+  </si>
 </sst>
 </file>
 
@@ -240,7 +259,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -320,6 +339,12 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -411,16 +436,15 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -437,17 +461,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,7 +494,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -502,7 +531,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -689,7 +718,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="797338128"/>
@@ -751,7 +780,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="797336488"/>
@@ -799,7 +828,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -813,7 +842,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -850,7 +879,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1037,7 +1066,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="797338128"/>
@@ -1099,7 +1128,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="797336488"/>
@@ -1147,7 +1176,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1161,7 +1190,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1228,7 +1257,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1341,7 +1370,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-CH"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1467,7 +1496,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="901719264"/>
@@ -1529,7 +1558,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="901716640"/>
@@ -1577,7 +1606,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3301,10 +3330,180 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Chi-squared test: 1st example &#10;Data Entry &#10;Expected Cell &#10;Frequencies per &#10;Null Hypothesis &#10;Totals &#10;34 &#10;152 &#10;186 &#10;76 &#10;68 &#10;144 &#10;110 &#10;220 &#10;330 &#10;62 &#10;124 &#10;48 &#10;96 &#10;186 *110 &#10;Exam &#10;table. &#10;right t &#10;expec &#10;Expected frequencies: eij — &#10;• eij is an expected frequency; &#10;• oi is a marginal column frequency, &#10;• oj is a rnarginal row frequency; &#10;62 = &#10;330 &#10;186 *220 &#10;124 = &#10;48 = &#10;144 *110 &#10;330 &#10;144 *220 &#10;96 = ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335938A6-D272-790C-50EB-BE61592FCE8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14935200" y="279400"/>
+          <a:ext cx="10490200" cy="6219344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15239</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>81894</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A1F042-B96A-9648-B5FE-562C777920DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="38345"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="434339" y="596900"/>
+          <a:ext cx="4448155" cy="1592580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Chi-squared test: 1st example &#10;Data Entry &#10;Expected Cell &#10;Frequencies per &#10;Null Hypothesis &#10;Totals &#10;34 &#10;152 &#10;186 &#10;76 &#10;68 &#10;144 &#10;110 &#10;220 &#10;330 &#10;62 &#10;124 &#10;48 &#10;96 &#10;186 *110 &#10;Exam &#10;table. &#10;right t &#10;expec &#10;Expected frequencies: eij — &#10;• eij is an expected frequency; &#10;• oi is a marginal column frequency, &#10;• oj is a rnarginal row frequency; &#10;62 = &#10;330 &#10;186 *220 &#10;124 = &#10;48 = &#10;144 *110 &#10;330 &#10;144 *220 &#10;96 = ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9121B8-879F-C048-B6B8-3E9AD854111A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14719300" y="266700"/>
+          <a:ext cx="10337800" cy="5863744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3353,7 +3552,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3432,7 +3631,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3474,7 +3673,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3770,201 +3969,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7A0348-C0D0-4693-8739-97C81837FDBE}">
-  <dimension ref="B2:P24"/>
+  <dimension ref="B2:R48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="D1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H4" s="27" t="s">
+    <row r="4" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="H4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H6" s="22"/>
-      <c r="I6" s="23">
+      <c r="R4" s="32"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="R5" s="33"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H6" s="21"/>
+      <c r="I6" s="22">
         <v>0</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>1</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23">
+      <c r="M6" s="21"/>
+      <c r="N6" s="22">
         <v>0</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="22">
         <v>1</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H7" s="23">
+      <c r="R6" s="33"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H7" s="22">
         <v>1</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <v>34</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <v>76</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <f>SUM(I7:J7)</f>
         <v>110</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="22">
         <v>1</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="27">
         <f>I9*K7/K9</f>
         <v>62</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="27">
         <f>J9*K7/K9</f>
         <v>48</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="22">
         <f>SUM(N7:O7)</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H8" s="23">
+      <c r="R7" s="33"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H8" s="22">
         <v>0</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <v>152</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <v>68</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <f>SUM(I8:J8)</f>
         <v>220</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="22">
         <v>0</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="27">
         <f>I9*K8/K9</f>
         <v>124</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="27">
         <f>J9*K8/K9</f>
         <v>96</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="22">
         <f>SUM(N8:O8)</f>
         <v>220</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H9" s="23" t="s">
+      <c r="R8" s="33"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <f>SUM(I7:I8)</f>
         <v>186</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <f>SUM(J7:J8)</f>
         <v>144</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <f>SUM(I7:J8)</f>
         <v>330</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="22">
         <f>SUM(N7:N8)</f>
         <v>186</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="22">
         <f>SUM(O7:O8)</f>
         <v>144</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="22">
         <f>SUM(N7:O8)</f>
         <v>330</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="H11" s="21" t="s">
+      <c r="R9" s="33"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="R10" s="33"/>
+    </row>
+    <row r="11" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="H11" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="25">
+      <c r="R11" s="33"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H12" s="24">
         <f>((I7-N7)^2/N7) + ((I8-N8)^2/N8) +  ((J7-O7)^2/O7) +  ((J8-O8)^2/O8)</f>
         <v>43.467741935483865</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="26" t="s">
+      <c r="R12" s="33"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H13" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="H15" s="21" t="s">
+      <c r="R13" s="33"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="R14" s="33"/>
+    </row>
+    <row r="15" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="H15" s="20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R15" s="33"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H16" s="1">
         <f>(2-1) * (2-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="26" t="s">
+      <c r="R16" s="33"/>
+    </row>
+    <row r="17" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H17" s="25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="8:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="H19" s="21" t="s">
+      <c r="R17" s="33"/>
+    </row>
+    <row r="18" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R18" s="33"/>
+    </row>
+    <row r="19" spans="8:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="H19" s="20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="17" t="s">
+      <c r="R19" s="33"/>
+    </row>
+    <row r="20" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H20" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="R20" s="33"/>
+    </row>
+    <row r="21" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R21" s="33"/>
+    </row>
+    <row r="22" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="8:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="R22" s="33"/>
+    </row>
+    <row r="23" spans="8:18" ht="14" x14ac:dyDescent="0.2">
       <c r="H23" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="R23" s="33"/>
+    </row>
+    <row r="24" spans="8:18" x14ac:dyDescent="0.15">
       <c r="H24" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="R24" s="33"/>
+    </row>
+    <row r="25" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R25" s="33"/>
+    </row>
+    <row r="26" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R26" s="33"/>
+    </row>
+    <row r="27" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R27" s="33"/>
+    </row>
+    <row r="28" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R28" s="33"/>
+    </row>
+    <row r="29" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R29" s="33"/>
+    </row>
+    <row r="30" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R30" s="33"/>
+    </row>
+    <row r="31" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R31" s="33"/>
+    </row>
+    <row r="32" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R32" s="33"/>
+    </row>
+    <row r="33" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R33" s="33"/>
+    </row>
+    <row r="34" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R34" s="33"/>
+    </row>
+    <row r="35" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R35" s="33"/>
+    </row>
+    <row r="36" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R36" s="33"/>
+    </row>
+    <row r="37" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R37" s="33"/>
+    </row>
+    <row r="38" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R38" s="33"/>
+    </row>
+    <row r="39" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R39" s="33"/>
+    </row>
+    <row r="40" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R40" s="33"/>
+    </row>
+    <row r="41" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R41" s="33"/>
+    </row>
+    <row r="42" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R42" s="33"/>
+    </row>
+    <row r="43" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R43" s="33"/>
+    </row>
+    <row r="44" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R44" s="33"/>
+    </row>
+    <row r="45" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R45" s="33"/>
+    </row>
+    <row r="46" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R46" s="33"/>
+    </row>
+    <row r="47" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R47" s="33"/>
+    </row>
+    <row r="48" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R48" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3977,199 +4279,572 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433878EB-8D2B-A849-845C-7DABEF52E927}">
+  <dimension ref="B2:R50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="H4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="32"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="R5" s="33"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H6" s="21"/>
+      <c r="I6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="33"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0</v>
+      </c>
+      <c r="J7" s="23">
+        <v>4</v>
+      </c>
+      <c r="K7" s="22">
+        <f>SUM(I7:J7)</f>
+        <v>4</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="27">
+        <f>$I$11*$K7/$K$11</f>
+        <v>2.4313725490196076</v>
+      </c>
+      <c r="O7" s="27">
+        <f>$J$11*K7/$K$11</f>
+        <v>1.5686274509803921</v>
+      </c>
+      <c r="P7" s="22">
+        <f>SUM(N7:O7)</f>
+        <v>4</v>
+      </c>
+      <c r="R7" s="33"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="23">
+        <v>7</v>
+      </c>
+      <c r="J8" s="23">
+        <v>6</v>
+      </c>
+      <c r="K8" s="22">
+        <f t="shared" ref="K8:K9" si="0">SUM(I8:J8)</f>
+        <v>13</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="27">
+        <f t="shared" ref="N8:N9" si="1">$I$11*$K8/$K$11</f>
+        <v>7.9019607843137258</v>
+      </c>
+      <c r="O8" s="27">
+        <f t="shared" ref="O8:O9" si="2">$J$11*K8/$K$11</f>
+        <v>5.0980392156862742</v>
+      </c>
+      <c r="P8" s="22">
+        <f t="shared" ref="P8:P9" si="3">SUM(N8:O8)</f>
+        <v>13</v>
+      </c>
+      <c r="R8" s="33"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="23">
+        <v>9</v>
+      </c>
+      <c r="J9" s="23">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="27">
+        <f t="shared" si="1"/>
+        <v>5.4705882352941178</v>
+      </c>
+      <c r="O9" s="27">
+        <f t="shared" si="2"/>
+        <v>3.5294117647058822</v>
+      </c>
+      <c r="P9" s="22">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="R9" s="33"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="23">
+        <v>15</v>
+      </c>
+      <c r="J10" s="23">
+        <v>10</v>
+      </c>
+      <c r="K10" s="22">
+        <f>SUM(I10:J10)</f>
+        <v>25</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="27">
+        <f>I11*K10/K11</f>
+        <v>15.196078431372548</v>
+      </c>
+      <c r="O10" s="27">
+        <f>J11*K10/K11</f>
+        <v>9.8039215686274517</v>
+      </c>
+      <c r="P10" s="22">
+        <f>SUM(N10:O10)</f>
+        <v>25</v>
+      </c>
+      <c r="R10" s="33"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="22">
+        <f>SUM(I7:I10)</f>
+        <v>31</v>
+      </c>
+      <c r="J11" s="22">
+        <f>SUM(J7:J10)</f>
+        <v>20</v>
+      </c>
+      <c r="K11" s="22">
+        <f>SUM(I7:J10)</f>
+        <v>51</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="22">
+        <f>SUM(N7:N10)</f>
+        <v>31</v>
+      </c>
+      <c r="O11" s="22">
+        <f>SUM(O7:O10)</f>
+        <v>20</v>
+      </c>
+      <c r="P11" s="22">
+        <f>SUM(N7:O10)</f>
+        <v>51</v>
+      </c>
+      <c r="R11" s="33"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="R12" s="33"/>
+    </row>
+    <row r="13" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="H13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="33"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H14" s="24">
+        <f>((I7-N7)^2/N7) + ((I10-N10)^2/N10) +  ((J7-O7)^2/O7) +  ((J10-O10)^2/O10)</f>
+        <v>6.2064516129032263</v>
+      </c>
+      <c r="R14" s="33"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="H15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="33"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="R16" s="33"/>
+    </row>
+    <row r="17" spans="8:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="H17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="33"/>
+    </row>
+    <row r="18" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H18" s="1">
+        <f>(2-1) * (2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R18" s="33"/>
+    </row>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="33"/>
+    </row>
+    <row r="20" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R20" s="33"/>
+    </row>
+    <row r="21" spans="8:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="H21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="33"/>
+    </row>
+    <row r="22" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="33"/>
+    </row>
+    <row r="23" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R23" s="33"/>
+    </row>
+    <row r="24" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="33"/>
+    </row>
+    <row r="25" spans="8:18" ht="14" x14ac:dyDescent="0.2">
+      <c r="H25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="33"/>
+    </row>
+    <row r="26" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="H26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R26" s="33"/>
+    </row>
+    <row r="27" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R27" s="33"/>
+    </row>
+    <row r="28" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R28" s="33"/>
+    </row>
+    <row r="29" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R29" s="33"/>
+    </row>
+    <row r="30" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R30" s="33"/>
+    </row>
+    <row r="31" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R31" s="33"/>
+    </row>
+    <row r="32" spans="8:18" x14ac:dyDescent="0.15">
+      <c r="R32" s="33"/>
+    </row>
+    <row r="33" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R33" s="33"/>
+    </row>
+    <row r="34" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R34" s="33"/>
+    </row>
+    <row r="35" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R35" s="33"/>
+    </row>
+    <row r="36" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R36" s="33"/>
+    </row>
+    <row r="37" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R37" s="33"/>
+    </row>
+    <row r="38" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R38" s="33"/>
+    </row>
+    <row r="39" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R39" s="33"/>
+    </row>
+    <row r="40" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R40" s="33"/>
+    </row>
+    <row r="41" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R41" s="33"/>
+    </row>
+    <row r="42" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R42" s="33"/>
+    </row>
+    <row r="43" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R43" s="33"/>
+    </row>
+    <row r="44" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R44" s="33"/>
+    </row>
+    <row r="45" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R45" s="33"/>
+    </row>
+    <row r="46" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R46" s="33"/>
+    </row>
+    <row r="47" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R47" s="33"/>
+    </row>
+    <row r="48" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R48" s="33"/>
+    </row>
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R49" s="33"/>
+    </row>
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R50" s="33"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H22" r:id="rId1" xr:uid="{5C8190E3-4CD4-1743-AF5B-7BDB5D192B3F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49655AE9-723A-4807-951B-F7153D363594}">
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="B1" zoomScale="213" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H3" s="27" t="s">
+    <row r="3" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="H3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H5" s="22"/>
-      <c r="I5" s="23">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H5" s="21"/>
+      <c r="I5" s="22">
         <v>0</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>1</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23">
+      <c r="M5" s="21"/>
+      <c r="N5" s="22">
         <v>0</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="22">
         <v>1</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H6" s="23">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H6" s="22">
         <v>1</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>45</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <v>65</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <f>SUM(I6:J6)</f>
         <v>110</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="22">
         <v>1</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="29">
         <f>I8*K6/K8</f>
         <v>63.088235294117645</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="29">
         <f>J8*K6/K8</f>
         <v>46.911764705882355</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="22">
         <f>SUM(N6:O6)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H7" s="23">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H7" s="22">
         <v>0</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <v>72</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <v>22</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <f>SUM(I7:J7)</f>
         <v>94</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="22">
         <v>0</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="29">
         <f>I8*K7/K8</f>
         <v>53.911764705882355</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="29">
         <f>J8*K7/K8</f>
         <v>40.088235294117645</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="22">
         <f>SUM(N7:O7)</f>
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H8" s="23" t="s">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <f>SUM(I6:I7)</f>
         <v>117</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <f>SUM(J6:J7)</f>
         <v>87</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <f>SUM(I6:J7)</f>
         <v>204</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="22">
         <f>SUM(N6:N7)</f>
         <v>117</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="22">
         <f>SUM(O6:O7)</f>
         <v>87</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="22">
         <f>SUM(N6:O7)</f>
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H10" s="27" t="s">
+    <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="H10" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H11" s="25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H11" s="24">
         <f>((I6-N6)^2/N6) + ((I7-N7)^2/N7) +  ((J6-O6)^2/O6) +  ((J7-O7)^2/O7)</f>
         <v>26.391085070468772</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="26" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H12" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H14" s="27" t="s">
+    <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="H14" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H15" s="1">
         <f>(2-1) * (2-1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H16" s="26" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H16" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="8:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H18" s="27" t="s">
+    <row r="18" spans="8:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H18" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="17" t="s">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H19" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="8:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:8" ht="14" x14ac:dyDescent="0.2">
       <c r="H22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H23" s="1" t="s">
         <v>25</v>
       </c>
@@ -4184,63 +4859,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284DBAAB-906E-4743-ADC0-64CD81757EA4}">
-  <dimension ref="B2:S54"/>
+  <dimension ref="B2:R54"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="1"/>
+    <col min="5" max="5" width="11.5" style="1"/>
     <col min="6" max="6" width="9.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="1"/>
+    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-    </row>
-    <row r="4" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
+    <row r="3" spans="2:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="20"/>
+    </row>
+    <row r="4" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-    </row>
-    <row r="6" spans="2:19" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="6" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4265,13 +4928,11 @@
       <c r="J6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="29"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
-      <c r="S6" s="29"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>1</v>
       </c>
@@ -4301,13 +4962,8 @@
         <f>G7^2</f>
         <v>6.25</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="29"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -4337,13 +4993,8 @@
         <f t="shared" ref="J8:J12" si="4">G8^2</f>
         <v>1.959999999999996</v>
       </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="29"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -4373,13 +5024,8 @@
         <f t="shared" si="4"/>
         <v>0.36000000000000171</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>4</v>
       </c>
@@ -4409,13 +5055,8 @@
         <f t="shared" si="4"/>
         <v>1.959999999999996</v>
       </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>5</v>
       </c>
@@ -4445,13 +5086,8 @@
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>6</v>
       </c>
@@ -4481,13 +5117,8 @@
         <f t="shared" si="4"/>
         <v>12.96000000000001</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4516,7 +5147,7 @@
         <v>23.740000000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
       <c r="I16" s="3" t="s">
         <v>10</v>
       </c>
@@ -4525,11 +5156,11 @@
         <v>0.8983004457482282</v>
       </c>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I17" s="18"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I17" s="17"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.15">
       <c r="I18" s="3" t="s">
         <v>14</v>
       </c>
@@ -4540,39 +5171,32 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:12" x14ac:dyDescent="0.15">
       <c r="I19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="J21" s="14"/>
-    </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I25" s="17"/>
-    </row>
-    <row r="33" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16" t="s">
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I25" s="16"/>
+    </row>
+    <row r="33" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="35" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="35" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>0</v>
       </c>
@@ -4598,7 +5222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>1</v>
       </c>
@@ -4629,7 +5253,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <v>2</v>
       </c>
@@ -4660,7 +5284,7 @@
         <v>1.959999999999996</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <v>3</v>
       </c>
@@ -4691,7 +5315,7 @@
         <v>0.36000000000000171</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="2">
         <v>4</v>
       </c>
@@ -4722,7 +5346,7 @@
         <v>1.959999999999996</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
         <v>5</v>
       </c>
@@ -4753,7 +5377,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
         <v>6</v>
       </c>
@@ -4784,7 +5408,7 @@
         <v>12.96000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
         <v>7</v>
       </c>
@@ -4813,7 +5437,7 @@
         <v>23.740000000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I45" s="3" t="s">
         <v>10</v>
       </c>
@@ -4822,16 +5446,16 @@
         <v>0.8983004457482282</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="14">
         <f>COUNT(B36:B41)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I47" s="3" t="s">
         <v>12</v>
       </c>
@@ -4840,7 +5464,7 @@
         <v>4.0889293929170769</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I48" s="3" t="s">
         <v>15</v>
       </c>
@@ -4848,10 +5472,7 @@
         <v>1.499E-2</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.15">
       <c r="I50" s="3" t="s">
         <v>14</v>
       </c>
@@ -4860,13 +5481,13 @@
         <v>0.8983004457482282</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.15">
       <c r="I51" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I54" s="17"/>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I54" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4875,73 +5496,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67E6F43-885D-46AA-A092-8D23A2F417A0}">
-  <dimension ref="B3:J27"/>
+  <dimension ref="B3:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="11.5546875" style="29"/>
-    <col min="6" max="10" width="21.88671875" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="29"/>
+    <col min="1" max="5" width="11.5" style="1"/>
+    <col min="6" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33" t="s">
+    <row r="3" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B5" s="32" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -4951,7 +5560,6 @@
       <c r="D6" s="2">
         <v>25000</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="6">
         <f>C6-$C$12</f>
         <v>-90</v>
@@ -4973,7 +5581,7 @@
         <v>1024000000</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -4983,7 +5591,6 @@
       <c r="D7" s="2">
         <v>45000</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="F7" s="6">
         <f t="shared" ref="F7:F10" si="0">C7-$C$12</f>
         <v>-30</v>
@@ -5005,7 +5612,7 @@
         <v>144000000</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -5015,7 +5622,6 @@
       <c r="D8" s="2">
         <v>85000</v>
       </c>
-      <c r="E8" s="1"/>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5037,7 +5643,7 @@
         <v>784000000</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -5047,7 +5653,6 @@
       <c r="D9" s="2">
         <v>35000</v>
       </c>
-      <c r="E9" s="1"/>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>-50</v>
@@ -5069,7 +5674,7 @@
         <v>484000000</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -5079,7 +5684,6 @@
       <c r="D10" s="2">
         <v>95000</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>140</v>
@@ -5101,18 +5705,7 @@
         <v>1444000000</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -5124,7 +5717,6 @@
         <f>AVERAGE(D6:D10)</f>
         <v>57000</v>
       </c>
-      <c r="E12" s="1"/>
       <c r="F12" s="4" t="s">
         <v>8</v>
       </c>
@@ -5142,26 +5734,8 @@
         <v>3880000000</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="32" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I14" s="30" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="12">
@@ -5169,31 +5743,17 @@
         <v>0.9423200831857812</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="32" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="14">
         <f>COUNT(B6:B10)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="32" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I16" s="30" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="12">
@@ -5201,41 +5761,16 @@
         <v>4.8762544700171562</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="32" t="s">
+    <row r="17" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I17" s="30" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="11">
         <v>1.6493000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="32" t="s">
+    <row r="19" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I19" s="30" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="12">
@@ -5243,95 +5778,13 @@
         <v>0.94232008318578131</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.15">
       <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I23" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
